--- a/doc/テーブル定義書.xlsx
+++ b/doc/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\work\apprentice\term2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\work\apprentice\term2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17C4B0-6F01-44EA-96E8-999D7E820169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A0DAF-2225-4181-A6F1-B05842F226A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル名" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="86">
   <si>
     <t>int</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>season_master.season_id</t>
-  </si>
-  <si>
-    <t>episode_name</t>
   </si>
   <si>
     <t>episode_length</t>
@@ -280,13 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エピソード名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エピソード詳細</t>
     <rPh sb="5" eb="7">
       <t>ショウサイ</t>
@@ -425,6 +415,25 @@
   </si>
   <si>
     <t>time_master.time_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>episode_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソードタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>episode_title</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,11 +505,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -783,9 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EF5AD-BDCF-4BEB-9D23-D7FE0E33706A}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -796,13 +804,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -811,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -823,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -835,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -847,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -859,10 +867,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -871,10 +879,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -883,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -895,10 +903,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -907,10 +915,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -940,28 +948,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -970,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -986,7 +994,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -995,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1018,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -1064,28 +1072,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1094,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1110,7 +1118,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1119,17 +1127,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1140,13 +1148,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1183,28 +1191,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1213,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1229,7 +1237,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1238,13 +1246,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1261,9 +1269,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42A96D-DF91-4BB2-94E1-B1F502A7BFBE}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1285,28 +1290,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1315,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1330,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1340,10 +1345,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1355,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1387,28 +1392,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1417,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1433,7 +1438,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1442,10 +1447,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1455,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1465,13 +1470,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1488,9 +1493,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5850548-CED9-4313-94E8-82D853E6F7A8}">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1508,28 +1515,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1538,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1554,16 +1561,16 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B8" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B9" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1586,16 +1593,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -1605,32 +1614,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" s="4" customFormat="1">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1643,18 +1654,39 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1686,28 +1718,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1716,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1732,7 +1764,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1741,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -1762,10 +1794,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -1808,28 +1840,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1838,13 +1870,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -1854,7 +1886,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1863,13 +1895,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1887,12 +1919,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2060B-9A70-4A36-9088-03B5CD40036C}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1910,28 +1941,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1940,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1955,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1965,10 +1996,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1980,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1990,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>

--- a/doc/テーブル定義書.xlsx
+++ b/doc/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\work\apprentice\term2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A0DAF-2225-4181-A6F1-B05842F226A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC43F6-D356-4844-9B8D-85C756DAEE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,9 @@
     <sheet name="3.番組ジャンル関連" sheetId="7" r:id="rId4"/>
     <sheet name="4.シーズンマスタ" sheetId="4" r:id="rId5"/>
     <sheet name="5.エピソードマスタ" sheetId="3" r:id="rId6"/>
-    <sheet name="6.時間マスタ" sheetId="1" r:id="rId7"/>
-    <sheet name="7.チャンネルマスタ" sheetId="6" r:id="rId8"/>
-    <sheet name="8.時間チャンネル関連" sheetId="10" r:id="rId9"/>
-    <sheet name="9.視聴情報" sheetId="8" r:id="rId10"/>
+    <sheet name="6.チャンネルマスタ" sheetId="6" r:id="rId7"/>
+    <sheet name="7.放送情報" sheetId="10" r:id="rId8"/>
+    <sheet name="8.視聴情報" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>int</t>
   </si>
@@ -46,9 +45,6 @@
   </si>
   <si>
     <t>episode_id</t>
-  </si>
-  <si>
-    <t>episode_master.episode_id</t>
   </si>
   <si>
     <t>datetime</t>
@@ -187,10 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ch_master.ch_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
   </si>
   <si>
@@ -301,26 +293,6 @@
     <t>放送ID</t>
     <rPh sb="0" eb="2">
       <t>ホウソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>放送開始</t>
-    <rPh sb="0" eb="2">
-      <t>ホウソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>放送修了</t>
-    <rPh sb="0" eb="2">
-      <t>ホウソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -385,36 +357,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間チャンネル関連</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>time_master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>time_ch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>time_master.time_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -434,6 +377,48 @@
   </si>
   <si>
     <t>episode_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送情報</t>
+    <rPh sb="0" eb="4">
+      <t>ホウソウジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送開始</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送終了</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>episode_master.episode_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_master.broadcast_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -505,12 +490,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -791,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EF5AD-BDCF-4BEB-9D23-D7FE0E33706A}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,25 +788,25 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B11" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B10" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -831,10 +815,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -843,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -855,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -867,10 +851,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -879,172 +863,39 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91762C26-3110-4332-961F-29AEEEB88134}">
-  <dimension ref="B2:I5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1072,28 +923,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1102,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1118,7 +969,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1127,17 +978,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1148,13 +999,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1191,28 +1042,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1221,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1237,7 +1088,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1246,13 +1097,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1290,28 +1141,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1320,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1335,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1345,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1360,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1392,28 +1243,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1422,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1438,7 +1289,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1447,10 +1298,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1460,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1470,13 +1321,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1496,7 +1347,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,28 +1366,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1545,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1561,7 +1412,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1570,10 +1421,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1583,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1593,10 +1444,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -1614,13 +1465,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -1629,19 +1480,19 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" s="4" customFormat="1">
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1654,10 +1505,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -1675,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1695,128 +1546,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E5EA4-7DF9-45B4-98BA-DCE47D480A60}">
   <dimension ref="B2:I4"/>
   <sheetViews>
@@ -1840,28 +1569,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1870,13 +1599,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -1886,7 +1615,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1895,13 +1624,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1917,21 +1646,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2060B-9A70-4A36-9088-03B5CD40036C}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.9140625" style="3" bestFit="1" customWidth="1"/>
@@ -1941,28 +1668,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1971,10 +1698,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1982,49 +1709,204 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B7" si="0">ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91762C26-3110-4332-961F-29AEEEB88134}">
+  <dimension ref="B2:I5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B5" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
